--- a/Unit_03/Assignment/Assignment_03.xlsx
+++ b/Unit_03/Assignment/Assignment_03.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BF0921-58F6-4275-AE81-0D37A8526265}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597753C6-D582-43C6-A6B9-1E79544FCAAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23670" yWindow="1875" windowWidth="30585" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19425" yWindow="2070" windowWidth="30225" windowHeight="17910" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tank" sheetId="3" r:id="rId1"/>
@@ -13,61 +13,106 @@
     <sheet name="Fencing" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Fertilizer!$D$3:$G$3</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Tank!$D$4:$F$4</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Fencing!$D$6:$D$8</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Fertilizer!$D$6:$D$7</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Tank!$E$11:$E$12</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Tank!$I$9</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Fencing!$D$6</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Fertilizer!$I$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Tank!$H$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Fencing!$D$7</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Tank!$H$13</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">Fencing!$D$8</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">Fencing!$D$9</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Fertilizer!$K$3</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Tank!$K$4</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Fencing!$G$9</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Fertilizer!$F$10</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Tank!$G$14</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Tank!$I$10</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">Fencing!$F$6</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Fertilizer!$J$8</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Tank!$I$12</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">Fencing!$F$7</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Tank!$I$13</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">Fencing!$F$8</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">Fencing!$E$9</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
@@ -87,10 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>Objective</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>x1</t>
   </si>
@@ -98,32 +140,60 @@
     <t>x2</t>
   </si>
   <si>
-    <t>x12</t>
-  </si>
-  <si>
-    <t>x22</t>
-  </si>
-  <si>
-    <t>MAX</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
     <t>h</t>
   </si>
   <si>
     <t>r</t>
   </si>
   <si>
-    <t>pi</t>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Objective:</t>
+  </si>
+  <si>
+    <t>Atleast</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Less than</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Coeff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,7 +211,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,20 +219,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,14 +264,8 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -210,40 +289,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Explanatory Text" xfId="5" builtinId="53"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Linked Cell" xfId="3" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="2" builtinId="21"/>
+    <cellStyle name="Warning Text" xfId="4" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -262,6 +356,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>332093</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA738C62-9E6A-4150-941F-8E821D508BBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8067675" y="123825"/>
+          <a:ext cx="10257143" cy="3638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -270,8 +413,8 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>122698</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>18556</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190006</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -307,20 +450,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>437003</xdr:colOff>
+      <xdr:colOff>132203</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>152014</xdr:rowOff>
+      <xdr:rowOff>180589</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -343,7 +486,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9553575" y="304800"/>
+          <a:off x="9248775" y="333375"/>
           <a:ext cx="9171428" cy="3085714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -619,10 +762,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8A2B7F-7875-42BA-8179-C3B137595E0E}">
-  <dimension ref="B3:K11"/>
+  <dimension ref="B4:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.1675443213016046</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f>F11*E11*E11*E10</f>
+        <v>8.5649852635525257</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.6701772852064192</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <f>F12*E12*E11*E10</f>
+        <v>68.519882108420219</v>
+      </c>
+      <c r="H12">
+        <f>E12</f>
+        <v>4.6701772852064192</v>
+      </c>
+      <c r="I12">
+        <f>E11*4</f>
+        <v>4.6701772852064183</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <f>F13*E11*E11*E10</f>
+        <v>34.259941054210103</v>
+      </c>
+      <c r="H13">
+        <f>E10*E11*E11*E12</f>
+        <v>19.999999812985362</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G14" s="5">
+        <f>SUM(G11:G13)</f>
+        <v>111.34480842618285</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:J10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,147 +875,101 @@
     <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D3" s="2" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.1578947368421044</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f>E6*D6</f>
+        <v>12.631578947368418</v>
+      </c>
+      <c r="H6" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I6" s="3">
+        <f>H6*D6</f>
+        <v>25263.157894736836</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.9473684210526323</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f>E7*D7</f>
+        <v>5.8947368421052646</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I7" s="3">
+        <f>H7*D7</f>
+        <v>14736.842105263162</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>-0.5</v>
+      </c>
+      <c r="F8">
+        <f>E8*D6*D6</f>
+        <v>-4.9861495844875323</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f>PI()</f>
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="4">
-        <f>SUMPRODUCT(D5:G5,D4:G4)</f>
-        <v>3.1415926535897931</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D5">
-        <f>PI()</f>
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="4">
+        <f>SUM(I6:I7)</f>
+        <v>40000</v>
+      </c>
+      <c r="J8" s="7">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>-0.25</v>
+      </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <f>SUMPRODUCT(D9:G9,D$4:G$4)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ref="I10:I11" si="0">SUMPRODUCT(D10:G10,D$4:G$4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K4"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>53687091.200000003</v>
-      </c>
-      <c r="E3" s="1">
-        <v>26843545.600000001</v>
-      </c>
-      <c r="F3" s="1">
-        <v>6710886.4000000004</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3355443.2000000002</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="4">
-        <f>SUMPRODUCT(D4:G4,D3:G3)</f>
-        <v>272629760</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.5</v>
-      </c>
-      <c r="G4">
-        <v>0.25</v>
+        <f>E9*D7*D7</f>
+        <v>-2.1717451523545717</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f>SUM(F6:F9)</f>
+        <v>11.368421052631579</v>
       </c>
     </row>
   </sheetData>
@@ -782,14 +981,96 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAD3EB8-965E-4758-9AD9-2BB35957C59A}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:G9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <f>F5*D9</f>
+        <v>4.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>D7+D8</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>D6+D8</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <f>D7+D6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <f>SUM(D6:D8)</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E9" s="6">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="e">
+        <f>SQRT(G5*(G5-D6)*(G5-D7)*(G5-D8))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Unit_03/Assignment/Assignment_03.xlsx
+++ b/Unit_03/Assignment/Assignment_03.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597753C6-D582-43C6-A6B9-1E79544FCAAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6BA2EE-FAB2-43AE-BC33-A8D8CD8A5814}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19425" yWindow="2070" windowWidth="30225" windowHeight="17910" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,10 +34,11 @@
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">Fencing!$D$6</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">Fertilizer!$I$8</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Tank!$H$12</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Fencing!$D$7</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Fencing!$D$6:$D$8</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Tank!$H$13</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">Fencing!$D$8</definedName>
-    <definedName name="solver_lhs4" localSheetId="2" hidden="1">Fencing!$D$9</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">Fencing!$D$7</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">Fencing!$D$8</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">Fencing!$D$9</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
@@ -56,13 +57,13 @@
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">5</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">Fencing!$G$9</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Fencing!$D$9</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Fertilizer!$F$10</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Tank!$G$14</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
@@ -74,17 +75,19 @@
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">Fencing!$F$6</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">Fertilizer!$J$8</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Tank!$I$12</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">Fencing!$F$7</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Tank!$I$13</definedName>
-    <definedName name="solver_rhs3" localSheetId="2" hidden="1">Fencing!$F$8</definedName>
-    <definedName name="solver_rhs4" localSheetId="2" hidden="1">Fencing!$E$9</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Tank!$J$12</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Tank!$J$13</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">Fencing!$F$7</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">Fencing!$F$8</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">Fencing!$E$9</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -116,7 +119,7 @@
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -124,7 +127,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -132,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>x1</t>
   </si>
@@ -179,10 +181,22 @@
     <t>Perimeter</t>
   </si>
   <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Coeff</t>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>Coef.</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>Area:</t>
+  </si>
+  <si>
+    <t>Constraints:</t>
+  </si>
+  <si>
+    <t>Coef:</t>
   </si>
 </sst>
 </file>
@@ -191,9 +205,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,8 +260,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,8 +317,14 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -306,22 +365,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -330,13 +415,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="6"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="7"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="8" fillId="3" borderId="5" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Explanatory Text" xfId="5" builtinId="53"/>
+    <cellStyle name="Heading 3" xfId="6" builtinId="18"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Linked Cell" xfId="3" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="7" builtinId="21"/>
     <cellStyle name="Warning Text" xfId="4" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -365,7 +470,7 @@
       <xdr:col>29</xdr:col>
       <xdr:colOff>332093</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>142420</xdr:rowOff>
+      <xdr:rowOff>132895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -454,13 +559,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>132203</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>180589</xdr:rowOff>
@@ -764,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8A2B7F-7875-42BA-8179-C3B137595E0E}">
   <dimension ref="B4:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,8 +888,11 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>4</v>
       </c>
@@ -792,7 +900,8 @@
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="10"/>
+      <c r="I10" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -825,11 +934,14 @@
         <f>F12*E12*E11*E10</f>
         <v>68.519882108420219</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="11">
         <f>E12</f>
         <v>4.6701772852064192</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12">
         <f>E11*4</f>
         <v>4.6701772852064183</v>
       </c>
@@ -842,11 +954,14 @@
         <f>F13*E11*E11*E10</f>
         <v>34.259941054210103</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="11">
         <f>E10*E11*E11*E12</f>
         <v>19.999999812985362</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13">
         <v>20</v>
       </c>
     </row>
@@ -858,7 +973,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -867,7 +983,7 @@
   <dimension ref="B3:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,6 +1000,9 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E5" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="H5" s="9" t="s">
         <v>7</v>
       </c>
@@ -967,7 +1086,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F10">
+      <c r="F10" s="11">
         <f>SUM(F6:F9)</f>
         <v>11.368421052631579</v>
       </c>
@@ -981,97 +1100,135 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAD3EB8-965E-4758-9AD9-2BB35957C59A}">
-  <dimension ref="B3:G9"/>
+  <dimension ref="A3:J9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5">
         <v>0.5</v>
       </c>
-      <c r="G5">
-        <f>F5*D9</f>
-        <v>4.9999999999999998E-7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="H5">
+        <f>G5*D9</f>
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <f>SQRT(H5*(H5-D6)*(H5-D7)*(H5-D8))</f>
+        <v>173.20508075688772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="16">
+        <v>20</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="15">
+        <f>D7+D8</f>
+        <v>40</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>0</v>
       </c>
-      <c r="F6">
-        <f>D7+D8</f>
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="B7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="16">
+        <v>20</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="15">
+        <f>D6+D8</f>
+        <v>40</v>
+      </c>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>0</v>
       </c>
-      <c r="F7">
-        <f>D6+D8</f>
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="16">
+        <v>20</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="15">
         <f>D7+D6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="17">
         <f>SUM(D6:D8)</f>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E9" s="6">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="e">
-        <f>SQRT(G5*(G5-D6)*(G5-D7)*(G5-D8))</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="E9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unit_03/Assignment/Assignment_03.xlsx
+++ b/Unit_03/Assignment/Assignment_03.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6BA2EE-FAB2-43AE-BC33-A8D8CD8A5814}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B217A0-3FC7-4D0A-87D2-9B1EC8C64E6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19425" yWindow="2070" windowWidth="30225" windowHeight="17910" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19425" yWindow="2070" windowWidth="10920" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tank" sheetId="3" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>x1</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>Objective:</t>
-  </si>
-  <si>
-    <t>Atleast</t>
   </si>
   <si>
     <t>Cost</t>
@@ -203,11 +200,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,14 +254,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -324,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -366,15 +356,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -390,15 +371,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -415,9 +395,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="6"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="7"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="6"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,22 +405,22 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="8" fillId="3" borderId="5" xfId="7" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="3" borderId="4" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Explanatory Text" xfId="5" builtinId="53"/>
-    <cellStyle name="Heading 3" xfId="6" builtinId="18"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Linked Cell" xfId="3" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="7" builtinId="21"/>
+    <cellStyle name="Output" xfId="6" builtinId="21"/>
     <cellStyle name="Warning Text" xfId="4" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -470,7 +449,7 @@
       <xdr:col>29</xdr:col>
       <xdr:colOff>332093</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>132895</xdr:rowOff>
+      <xdr:rowOff>142420</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -869,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8A2B7F-7875-42BA-8179-C3B137595E0E}">
   <dimension ref="B4:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,6 +857,7 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -888,11 +868,14 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>4</v>
       </c>
@@ -900,16 +883,12 @@
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="19">
         <v>1.1675443213016046</v>
       </c>
       <c r="F11">
@@ -924,7 +903,7 @@
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="19">
         <v>4.6701772852064192</v>
       </c>
       <c r="F12">
@@ -934,12 +913,12 @@
         <f>F12*E12*E11*E10</f>
         <v>68.519882108420219</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <f>E12</f>
         <v>4.6701772852064192</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>15</v>
+      <c r="I12" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="J12">
         <f>E11*4</f>
@@ -954,12 +933,12 @@
         <f>F13*E11*E11*E10</f>
         <v>34.259941054210103</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <f>E10*E11*E11*E12</f>
         <v>19.999999812985362</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>15</v>
+      <c r="I13" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="J13">
         <v>20</v>
@@ -983,7 +962,7 @@
   <dimension ref="B3:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,17 +979,17 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E5" s="13" t="s">
-        <v>16</v>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -1066,7 +1045,7 @@
         <v>-4.9861495844875323</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" s="4">
         <f>SUM(I6:I7)</f>
@@ -1086,7 +1065,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <f>SUM(F6:F9)</f>
         <v>11.368421052631579</v>
       </c>
@@ -1102,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAD3EB8-965E-4758-9AD9-2BB35957C59A}">
   <dimension ref="A3:J9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,14 +1100,14 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>20</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1148,78 +1127,78 @@
       <c r="A6">
         <v>0</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="B6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="15">
         <v>20</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="E6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="14">
         <f>D7+D8</f>
         <v>40</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="B7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="15">
         <v>20</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="E7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="14">
         <f>D6+D8</f>
         <v>40</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="B8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15">
         <v>20</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="15">
+      <c r="E8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="14">
         <f>D7+D6</f>
         <v>40</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="17">
+        <v>13</v>
+      </c>
+      <c r="D9" s="16">
         <f>SUM(D6:D8)</f>
         <v>60</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>10</v>
+      <c r="E9" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="F9">
         <v>60</v>

--- a/Unit_03/Assignment/Assignment_03.xlsx
+++ b/Unit_03/Assignment/Assignment_03.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B217A0-3FC7-4D0A-87D2-9B1EC8C64E6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E42A77-6716-4A80-95A2-0E0DFB2EC6DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19425" yWindow="2070" windowWidth="10920" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="2130" windowWidth="29100" windowHeight="17310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tank" sheetId="3" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -127,6 +127,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -203,7 +204,7 @@
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -412,7 +413,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -849,7 +850,7 @@
   <dimension ref="B4:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,7 +963,7 @@
   <dimension ref="B3:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Unit_03/Assignment/Assignment_03.xlsx
+++ b/Unit_03/Assignment/Assignment_03.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E42A77-6716-4A80-95A2-0E0DFB2EC6DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1310EC-CD99-4FE2-8335-FE4AD6DD8088}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="2130" windowWidth="29100" windowHeight="17310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8295" yWindow="2595" windowWidth="28350" windowHeight="19335" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tank" sheetId="3" r:id="rId1"/>
     <sheet name="Fertilizer" sheetId="1" r:id="rId2"/>
     <sheet name="Fencing" sheetId="2" r:id="rId3"/>
+    <sheet name="Toys" sheetId="4" r:id="rId4"/>
+    <sheet name="Mines" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Fencing!$D$6:$D$8</definedName>
@@ -135,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>x1</t>
   </si>
@@ -195,6 +197,30 @@
   </si>
   <si>
     <t>Coef:</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Plastic</t>
+  </si>
+  <si>
+    <t>Rubber</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -206,7 +232,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +312,27 @@
       <i/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -381,7 +428,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -414,6 +461,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -847,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8A2B7F-7875-42BA-8179-C3B137595E0E}">
-  <dimension ref="B4:J14"/>
+  <dimension ref="B4:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,6 +1004,12 @@
         <v>111.34480842618285</v>
       </c>
     </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="21"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -963,7 +1022,7 @@
   <dimension ref="B3:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAD3EB8-965E-4758-9AD9-2BB35957C59A}">
   <dimension ref="A3:J9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,6 +1166,9 @@
       <c r="G4" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="H4" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1211,4 +1273,182 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E99644-94F8-4BA7-B816-67A2A47EEB3F}">
+  <dimension ref="B4:L9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="J5">
+        <f>H5*G5+F5*E5+D5*C5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="22">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="J6">
+        <f>H6*G6+F6*E6+D6*C6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="22">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7">
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="J7">
+        <f t="shared" ref="J7" si="0">H7*G7+F7*E7+D7*C7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="22">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="J8">
+        <f>H8*G8+F8*E8+D8*C8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="J9">
+        <f>H9*G9+F9*E9+D9*C9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="22">
+        <v>164000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0946960-F8C5-491A-9C81-73992497BA7F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Unit_03/Assignment/Assignment_03.xlsx
+++ b/Unit_03/Assignment/Assignment_03.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1310EC-CD99-4FE2-8335-FE4AD6DD8088}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D913CF1C-3146-4080-8930-73A3282B3739}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="2595" windowWidth="28350" windowHeight="19335" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8295" yWindow="2595" windowWidth="28350" windowHeight="19335" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tank" sheetId="3" r:id="rId1"/>
@@ -15,111 +15,152 @@
     <sheet name="Mines" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="AmountOver">Toys!$K$5:$K$9</definedName>
+    <definedName name="AmountUnder">Toys!$L$5:$L$9</definedName>
+    <definedName name="Balance">Toys!$N$5:$N$9</definedName>
+    <definedName name="Deviations">Toys!$K$5:$L$9</definedName>
+    <definedName name="Goal">Toys!$P$5:$P$9</definedName>
+    <definedName name="Goal1">Toys!$L$8</definedName>
+    <definedName name="LevelAchieved">Toys!$G$5:$G$9</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Fencing!$D$6:$D$8</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Fertilizer!$D$6:$D$7</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Tank!$E$11:$E$12</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Toys!$C$14:$E$14,Toys!$K$5:$L$9</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">Fencing!$D$6</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">Fertilizer!$I$8</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Tank!$H$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Toys!$G$5:$G$8</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">Fencing!$D$6:$D$8</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Tank!$H$13</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Toys!$G$9</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">Fencing!$D$7</definedName>
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">Fencing!$D$8</definedName>
     <definedName name="solver_lhs5" localSheetId="2" hidden="1">Fencing!$D$9</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">5</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">Fencing!$D$9</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Fertilizer!$F$10</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Tank!$G$14</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Toys!$G$8</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">Fencing!$F$6</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">Fertilizer!$J$8</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Tank!$J$12</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">Toys!$I$5:$I$8</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Tank!$J$13</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">Toys!$I$9</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">Fencing!$F$7</definedName>
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">Fencing!$F$8</definedName>
     <definedName name="solver_rhs5" localSheetId="2" hidden="1">Fencing!$E$9</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="UnitsProduced">Toys!$C$14:$E$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -129,7 +170,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -137,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>x1</t>
   </si>
@@ -221,6 +261,42 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>Achieved</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Producted</t>
+  </si>
+  <si>
+    <t>Deviations</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>Under</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>(Level - Over + Under)</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -232,7 +308,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +413,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -362,7 +450,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -418,8 +506,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -427,8 +524,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -467,10 +565,29 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="7"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="7" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="7" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="7" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="7" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Explanatory Text" xfId="5" builtinId="53"/>
+    <cellStyle name="Heading 3" xfId="7" builtinId="18"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Linked Cell" xfId="3" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,6 +743,99 @@
         <a:xfrm>
           <a:off x="9248775" y="333375"/>
           <a:ext cx="9171428" cy="3085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>199084</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>56846</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0233B007-6582-4A26-9E6A-3CF33F1F5C1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11591925" y="314325"/>
+          <a:ext cx="7523809" cy="2428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>65723</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4D9D5E8-0F9B-4B6F-ACBA-7F82B07AD780}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11363325" y="2581275"/>
+          <a:ext cx="7619048" cy="1466667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -903,7 +1113,7 @@
   <dimension ref="B4:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAD3EB8-965E-4758-9AD9-2BB35957C59A}">
   <dimension ref="A3:J9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,165 +1487,295 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E99644-94F8-4BA7-B816-67A2A47EEB3F}">
-  <dimension ref="B4:L9"/>
+  <dimension ref="B2:P14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="30"/>
+      <c r="N2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+    </row>
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="E4" s="24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5">
         <v>1.5</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5">
+        <v>2</v>
+      </c>
       <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="J5">
-        <f>H5*G5+F5*E5+D5*C5</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="17" t="s">
+      <c r="G5" s="14">
+        <f>SUMPRODUCT(C5:E5,C$14:E$14)</f>
+        <v>40</v>
+      </c>
+      <c r="H5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="22">
+      <c r="I5" s="22">
         <v>16000</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>G5-K5+L5</f>
+        <v>40</v>
+      </c>
+      <c r="P5" s="22">
+        <f>I5</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6">
         <v>0.5</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
       <c r="E6">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="J6">
-        <f>H6*G6+F6*E6+D6*C6</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="17" t="s">
+      <c r="G6" s="14">
+        <f t="shared" ref="G6:G9" si="0">SUMPRODUCT(C6:E6,C$14:E$14)</f>
+        <v>40</v>
+      </c>
+      <c r="H6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="22">
+      <c r="I6" s="22">
         <v>5000</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N9" si="1">G6-K6+L6</f>
+        <v>40</v>
+      </c>
+      <c r="P6" s="22">
+        <f t="shared" ref="P6:P9" si="2">I6</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7">
         <v>0.3</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7">
+        <v>0.6</v>
+      </c>
       <c r="E7">
-        <v>0.6</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="J7">
-        <f t="shared" ref="J7" si="0">H7*G7+F7*E7+D7*C7</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="22">
+      <c r="I7" s="22">
         <v>9000</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="22">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8">
+        <v>2</v>
+      </c>
       <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="J8">
-        <f>H8*G8+F8*E8+D8*C8</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="17" t="s">
+      <c r="G8" s="14">
+        <f>SUMPRODUCT(C8:E8,C$14:E$14)</f>
+        <v>40</v>
+      </c>
+      <c r="H8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="22">
+      <c r="I8" s="22">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P8" s="22">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9">
+        <v>5</v>
+      </c>
       <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9">
         <v>4</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="J9">
-        <f>H9*G9+F9*E9+D9*C9</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="22">
+      <c r="G9" s="14">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="22">
         <v>164000</v>
       </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="P9" s="22">
+        <f t="shared" si="2"/>
+        <v>164000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N2:P2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1443,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0946960-F8C5-491A-9C81-73992497BA7F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Unit_03/Assignment/Assignment_03.xlsx
+++ b/Unit_03/Assignment/Assignment_03.xlsx
@@ -3,29 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D913CF1C-3146-4080-8930-73A3282B3739}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C851B7D-A357-4CBA-B024-87BBA969FC72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="2595" windowWidth="28350" windowHeight="19335" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8295" yWindow="2595" windowWidth="28350" windowHeight="19335" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tank" sheetId="3" r:id="rId1"/>
     <sheet name="Fertilizer" sheetId="1" r:id="rId2"/>
     <sheet name="Fencing" sheetId="2" r:id="rId3"/>
     <sheet name="Toys" sheetId="4" r:id="rId4"/>
-    <sheet name="Mines" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="AmountOver">Toys!$K$5:$K$9</definedName>
-    <definedName name="AmountUnder">Toys!$L$5:$L$9</definedName>
-    <definedName name="Balance">Toys!$N$5:$N$9</definedName>
-    <definedName name="Deviations">Toys!$K$5:$L$9</definedName>
-    <definedName name="Goal">Toys!$P$5:$P$9</definedName>
-    <definedName name="Goal1">Toys!$L$8</definedName>
+    <definedName name="AmountUnder">Toys!$N$5:$N$9</definedName>
+    <definedName name="Balance">Toys!$T$5:$T$9</definedName>
+    <definedName name="Deviations">Toys!$K$5:$K$9,Toys!$N$5:$N$9</definedName>
+    <definedName name="Goal">Toys!$V$5:$V$9</definedName>
+    <definedName name="Goal1">Toys!$N$8</definedName>
     <definedName name="LevelAchieved">Toys!$G$5:$G$9</definedName>
+    <definedName name="Penalty">Toys!$L$5:$L$9,Toys!$O$5:$O$9</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Fencing!$D$6:$D$8</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Fertilizer!$D$6:$D$7</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Tank!$E$11:$E$12</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">Toys!$C$14:$E$14,Toys!$K$5:$L$9</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Toys!$C$14:$E$14,Toys!$K$5:$K$9,Toys!$N$5:$N$9</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
@@ -37,7 +37,7 @@
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
@@ -49,11 +49,12 @@
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">Fencing!$D$6</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">Fertilizer!$I$8</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Tank!$H$12</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Toys!$G$5:$G$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Toys!$G$8</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">Fencing!$D$6:$D$8</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Tank!$H$13</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Toys!$G$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Toys!$T$5:$T$9</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">Fencing!$D$7</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Toys!$T$9</definedName>
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">Fencing!$D$8</definedName>
     <definedName name="solver_lhs5" localSheetId="2" hidden="1">Fencing!$D$9</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
@@ -91,7 +92,7 @@
     <definedName name="solver_opt" localSheetId="2" hidden="1">Fencing!$D$9</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Fertilizer!$F$10</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Tank!$G$14</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">Toys!$G$8</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Toys!$L$13</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
@@ -103,21 +104,23 @@
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">Fencing!$F$6</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">Fertilizer!$J$8</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Tank!$J$12</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">Toys!$I$5:$I$8</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">Toys!$V$8</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Tank!$J$13</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">Toys!$I$9</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">Goal</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">Fencing!$F$7</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">Toys!$V$9</definedName>
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">Fencing!$F$8</definedName>
     <definedName name="solver_rhs5" localSheetId="2" hidden="1">Fencing!$E$9</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
@@ -177,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>x1</t>
   </si>
@@ -275,9 +278,6 @@
     <t>Producted</t>
   </si>
   <si>
-    <t>Deviations</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -297,18 +297,31 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Over Penalty</t>
+  </si>
+  <si>
+    <t>Under Penalty</t>
+  </si>
+  <si>
+    <t>Objective</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +437,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -526,7 +546,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -577,10 +597,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="7" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="7" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="7" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="7" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="7" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -758,16 +786,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>199084</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>589609</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>56846</xdr:rowOff>
+      <xdr:rowOff>18746</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -790,7 +818,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11591925" y="314325"/>
+          <a:off x="14992350" y="276225"/>
           <a:ext cx="7523809" cy="2428571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -802,16 +830,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>65723</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>37917</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>446723</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -834,7 +862,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11363325" y="2581275"/>
+          <a:off x="16916400" y="2486025"/>
           <a:ext cx="7619048" cy="1466667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1113,7 +1141,7 @@
   <dimension ref="B4:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,10 +1515,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E99644-94F8-4BA7-B816-67A2A47EEB3F}">
-  <dimension ref="B2:P14"/>
+  <dimension ref="B2:V14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,21 +1526,35 @@
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="14" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="30"/>
-      <c r="N2" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="29"/>
+      <c r="L2" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="29"/>
+      <c r="O2" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="T2" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -1522,19 +1564,23 @@
       <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-    </row>
-    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="T3" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+    </row>
+    <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="24" t="s">
         <v>20</v>
       </c>
@@ -1552,21 +1598,25 @@
         <v>30</v>
       </c>
       <c r="J4" s="26"/>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28" t="s">
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="T4" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -1581,7 +1631,7 @@
       </c>
       <c r="G5" s="14">
         <f>SUMPRODUCT(C5:E5,C$14:E$14)</f>
-        <v>40</v>
+        <v>39.999999000000116</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>9</v>
@@ -1589,22 +1639,41 @@
       <c r="I5" s="22">
         <v>16000</v>
       </c>
-      <c r="K5">
-        <v>0</v>
+      <c r="K5" s="14">
+        <v>15960.000001</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <f>G5-K5+L5</f>
-        <v>40</v>
-      </c>
-      <c r="P5" s="22">
+        <v>2</v>
+      </c>
+      <c r="M5" s="14">
+        <f>L5/SUM((Penalty))</f>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="N5" s="22">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="14">
+        <f>O5/SUM(Penalty)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="33"/>
+      <c r="T5" s="22">
+        <f t="shared" ref="T5:T8" si="0">G5+K5-N5</f>
+        <v>16000</v>
+      </c>
+      <c r="U5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" s="22">
         <f>I5</f>
         <v>16000</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1687,8 @@
         <v>1</v>
       </c>
       <c r="G6" s="14">
-        <f t="shared" ref="G6:G9" si="0">SUMPRODUCT(C6:E6,C$14:E$14)</f>
-        <v>40</v>
+        <f t="shared" ref="G6:G9" si="1">SUMPRODUCT(C6:E6,C$14:E$14)</f>
+        <v>39.999999000000116</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>9</v>
@@ -1627,22 +1696,41 @@
       <c r="I6" s="22">
         <v>5000</v>
       </c>
-      <c r="K6">
-        <v>0</v>
+      <c r="K6" s="14">
+        <v>4960.0000009999994</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ref="N6:N9" si="1">G6-K6+L6</f>
-        <v>40</v>
-      </c>
-      <c r="P6" s="22">
-        <f t="shared" ref="P6:P9" si="2">I6</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="14">
+        <f>L6/SUM((Penalty))</f>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="14">
+        <f>O6/SUM(Penalty)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="33"/>
+      <c r="T6" s="22">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="U6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="22">
+        <f t="shared" ref="V6:V9" si="2">I6</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -1656,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H7" s="27" t="s">
@@ -1665,22 +1753,41 @@
       <c r="I7" s="22">
         <v>9000</v>
       </c>
-      <c r="K7">
-        <v>0</v>
+      <c r="K7" s="14">
+        <v>9000</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="22">
+        <v>1</v>
+      </c>
+      <c r="M7" s="14">
+        <f>L7/SUM((Penalty))</f>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="14">
+        <f>O7/SUM(Penalty)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="33"/>
+      <c r="T7" s="22">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="U7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" s="22">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>26</v>
       </c>
@@ -1695,7 +1802,7 @@
       </c>
       <c r="G8" s="14">
         <f>SUMPRODUCT(C8:E8,C$14:E$14)</f>
-        <v>40</v>
+        <v>39.999999000000116</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>9</v>
@@ -1703,22 +1810,41 @@
       <c r="I8" s="22">
         <v>40</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="14">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="P8" s="22">
+        <v>3</v>
+      </c>
+      <c r="M8" s="14">
+        <f>L8/SUM((Penalty))</f>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.5</v>
+      </c>
+      <c r="P8" s="14">
+        <f>O8/SUM(Penalty)</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="33"/>
+      <c r="T8" s="22">
+        <f t="shared" si="0"/>
+        <v>39.999999000000116</v>
+      </c>
+      <c r="U8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" s="22">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -1732,31 +1858,60 @@
         <v>4</v>
       </c>
       <c r="G9" s="14">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>159.99999600000046</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>38</v>
       </c>
       <c r="I9" s="22">
         <v>164000</v>
       </c>
-      <c r="K9">
-        <v>0</v>
+      <c r="K9" s="14">
+        <v>163840.000004</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-      <c r="P9" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="14">
+        <f>L9/SUM((Penalty))</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="N9" s="22">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0.5</v>
+      </c>
+      <c r="P9" s="14">
+        <f>O9/SUM(Penalty)</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22">
+        <f>G9+K9-N9</f>
+        <v>164000</v>
+      </c>
+      <c r="U9" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" s="22">
         <f t="shared" si="2"/>
         <v>164000</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="16">
+        <f>K5*M5+K6*M6+K7*M7+K8*M8+K9*M9+N9*P9+N5*P5+N6*P6+N7*P7+Goal1*P8</f>
+        <v>15035.294118235295</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -1767,28 +1922,15 @@
         <v>0</v>
       </c>
       <c r="E14" s="15">
-        <v>40</v>
+        <v>39.999999000000116</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="T2:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0946960-F8C5-491A-9C81-73992497BA7F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unit_03/Assignment/Assignment_03.xlsx
+++ b/Unit_03/Assignment/Assignment_03.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C851B7D-A357-4CBA-B024-87BBA969FC72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A8E03D-9D25-4C1D-A672-496534A0830D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="2595" windowWidth="28350" windowHeight="19335" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24525" yWindow="4050" windowWidth="28290" windowHeight="17385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tank" sheetId="3" r:id="rId1"/>
@@ -15,17 +15,17 @@
   </sheets>
   <definedNames>
     <definedName name="AmountOver">Toys!$K$5:$K$9</definedName>
-    <definedName name="AmountUnder">Toys!$N$5:$N$9</definedName>
-    <definedName name="Balance">Toys!$T$5:$T$9</definedName>
-    <definedName name="Deviations">Toys!$K$5:$K$9,Toys!$N$5:$N$9</definedName>
-    <definedName name="Goal">Toys!$V$5:$V$9</definedName>
-    <definedName name="Goal1">Toys!$N$8</definedName>
+    <definedName name="AmountUnder">Toys!$O$5:$O$9</definedName>
+    <definedName name="Balance">Toys!$V$5:$V$9</definedName>
+    <definedName name="Deviations">Toys!$K$5:$K$9,Toys!$O$5:$O$9</definedName>
+    <definedName name="Goal">Toys!$X$5:$X$9</definedName>
+    <definedName name="Goal1">Toys!$O$8</definedName>
     <definedName name="LevelAchieved">Toys!$G$5:$G$9</definedName>
-    <definedName name="Penalty">Toys!$L$5:$L$9,Toys!$O$5:$O$9</definedName>
+    <definedName name="Penalty">Toys!$L$5:$L$9,Toys!$P$5:$P$9</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Fencing!$D$6:$D$8</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Fertilizer!$D$6:$D$7</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Tank!$E$11:$E$12</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">Toys!$C$14:$E$14,Toys!$K$5:$K$9,Toys!$N$5:$N$9</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Toys!$C$14:$E$14,Toys!$K$5:$K$9,Toys!$O$5:$O$9</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
@@ -52,9 +52,9 @@
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">Toys!$G$8</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">Fencing!$D$6:$D$8</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Tank!$H$13</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Toys!$T$5:$T$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Toys!$V$5:$V$9</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">Fencing!$D$7</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Toys!$T$9</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Toys!$G$5:$G$9</definedName>
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">Fencing!$D$8</definedName>
     <definedName name="solver_lhs5" localSheetId="2" hidden="1">Fencing!$D$9</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
@@ -109,18 +109,18 @@
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">Fencing!$F$6</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">Fertilizer!$J$8</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Tank!$J$12</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">Toys!$V$8</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">Toys!$X$8</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Tank!$J$13</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">Goal</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">Fencing!$F$7</definedName>
-    <definedName name="solver_rhs3" localSheetId="3" hidden="1">Toys!$V$9</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">Fencing!$F$8</definedName>
     <definedName name="solver_rhs5" localSheetId="2" hidden="1">Fencing!$E$9</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
@@ -173,6 +173,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -180,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>x1</t>
   </si>
@@ -309,6 +310,39 @@
   </si>
   <si>
     <t>Objective</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>O4</t>
+  </si>
+  <si>
+    <t>O5</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>U5</t>
   </si>
 </sst>
 </file>
@@ -546,7 +580,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -606,6 +640,12 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="7" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="7" applyNumberFormat="1" applyAlignment="1">
@@ -737,16 +777,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>132203</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>351278</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>180589</xdr:rowOff>
+      <xdr:rowOff>37714</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -769,7 +809,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9248775" y="333375"/>
+          <a:off x="8420100" y="190500"/>
           <a:ext cx="9171428" cy="3085714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -786,13 +826,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>589609</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>18746</xdr:rowOff>
@@ -830,13 +870,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>446723</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>123642</xdr:rowOff>
@@ -1260,7 +1300,7 @@
   <dimension ref="B3:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAD3EB8-965E-4758-9AD9-2BB35957C59A}">
   <dimension ref="A3:J9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E99644-94F8-4BA7-B816-67A2A47EEB3F}">
-  <dimension ref="B2:V14"/>
+  <dimension ref="B2:X14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,10 +1568,10 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="14" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K2" s="29"/>
       <c r="L2" s="31" t="s">
         <v>40</v>
@@ -1539,22 +1579,26 @@
       <c r="M2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="31" t="s">
+      <c r="N2" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="29"/>
+      <c r="P2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="Q2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="T2" s="35" t="s">
+      <c r="R2" s="35"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="V2" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -1569,18 +1613,19 @@
       </c>
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="28"/>
+      <c r="O3" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="T3" s="28" t="s">
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="V3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-    </row>
-    <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+    </row>
+    <row r="4" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="24" t="s">
         <v>20</v>
       </c>
@@ -1603,20 +1648,21 @@
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="28"/>
+      <c r="O4" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="T4" s="28" t="s">
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="V4" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28" t="s">
+      <c r="W4" s="28"/>
+      <c r="X4" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -1631,7 +1677,7 @@
       </c>
       <c r="G5" s="14">
         <f>SUMPRODUCT(C5:E5,C$14:E$14)</f>
-        <v>39.999999000000116</v>
+        <v>40</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>9</v>
@@ -1640,7 +1686,7 @@
         <v>16000</v>
       </c>
       <c r="K5" s="14">
-        <v>15960.000001</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -1649,31 +1695,37 @@
         <f>L5/SUM((Penalty))</f>
         <v>0.23529411764705882</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="14">
+        <v>15960.000000000973</v>
+      </c>
+      <c r="P5" s="14">
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="Q5" s="14">
+        <f>P5/SUM(Penalty)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="14">
-        <f>O5/SUM(Penalty)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="33"/>
-      <c r="T5" s="22">
-        <f t="shared" ref="T5:T8" si="0">G5+K5-N5</f>
-        <v>16000</v>
-      </c>
-      <c r="U5" s="27" t="s">
+      <c r="R5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="32"/>
+      <c r="T5" s="33"/>
+      <c r="V5" s="22">
+        <f>G5-K5+O5</f>
+        <v>16000.000000000973</v>
+      </c>
+      <c r="W5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="22">
+      <c r="X5" s="22">
         <f>I5</f>
         <v>16000</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -1687,8 +1739,8 @@
         <v>1</v>
       </c>
       <c r="G6" s="14">
-        <f t="shared" ref="G6:G9" si="1">SUMPRODUCT(C6:E6,C$14:E$14)</f>
-        <v>39.999999000000116</v>
+        <f t="shared" ref="G6:G7" si="0">SUMPRODUCT(C6:E6,C$14:E$14)</f>
+        <v>40</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>9</v>
@@ -1697,7 +1749,7 @@
         <v>5000</v>
       </c>
       <c r="K6" s="14">
-        <v>4960.0000009999994</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1706,31 +1758,37 @@
         <f>L6/SUM((Penalty))</f>
         <v>0.11764705882352941</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="14">
+        <v>4959.9999999999818</v>
+      </c>
+      <c r="P6" s="14">
         <v>0</v>
       </c>
-      <c r="O6">
+      <c r="Q6" s="14">
+        <f>P6/SUM(Penalty)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="14">
-        <f>O6/SUM(Penalty)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="33"/>
-      <c r="T6" s="22">
-        <f t="shared" si="0"/>
+      <c r="R6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" s="32"/>
+      <c r="T6" s="33"/>
+      <c r="V6" s="22">
+        <f t="shared" ref="V6:V9" si="1">G6-K6+O6</f>
+        <v>4999.9999999999818</v>
+      </c>
+      <c r="W6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="22">
+        <f t="shared" ref="X6:X9" si="2">I6</f>
         <v>5000</v>
       </c>
-      <c r="U6" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" s="22">
-        <f t="shared" ref="V6:V9" si="2">I6</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -1744,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="27" t="s">
@@ -1754,7 +1812,7 @@
         <v>9000</v>
       </c>
       <c r="K7" s="14">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1763,31 +1821,37 @@
         <f>L7/SUM((Penalty))</f>
         <v>0.11764705882352941</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="14">
+        <v>9000.0000000007331</v>
+      </c>
+      <c r="P7" s="14">
         <v>0</v>
       </c>
-      <c r="O7">
+      <c r="Q7" s="14">
+        <f>P7/SUM(Penalty)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="14">
-        <f>O7/SUM(Penalty)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="33"/>
-      <c r="T7" s="22">
-        <f t="shared" si="0"/>
-        <v>9000</v>
-      </c>
-      <c r="U7" s="27" t="s">
+      <c r="R7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S7" s="32"/>
+      <c r="T7" s="33"/>
+      <c r="V7" s="22">
+        <f t="shared" si="1"/>
+        <v>9000.0000000007331</v>
+      </c>
+      <c r="W7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="V7" s="22">
+      <c r="X7" s="22">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>26</v>
       </c>
@@ -1802,7 +1866,7 @@
       </c>
       <c r="G8" s="14">
         <f>SUMPRODUCT(C8:E8,C$14:E$14)</f>
-        <v>39.999999000000116</v>
+        <v>40</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>9</v>
@@ -1820,31 +1884,37 @@
         <f>L8/SUM((Penalty))</f>
         <v>0.35294117647058826</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="14">
         <v>0</v>
       </c>
-      <c r="O8">
+      <c r="P8" s="14">
         <v>0.5</v>
       </c>
-      <c r="P8" s="14">
-        <f>O8/SUM(Penalty)</f>
+      <c r="Q8" s="14">
+        <f>P8/SUM(Penalty)</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="33"/>
-      <c r="T8" s="22">
-        <f t="shared" si="0"/>
-        <v>39.999999000000116</v>
-      </c>
-      <c r="U8" s="27" t="s">
+      <c r="R8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="32"/>
+      <c r="T8" s="33"/>
+      <c r="V8" s="22">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="W8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="V8" s="22">
+      <c r="X8" s="22">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -1858,8 +1928,8 @@
         <v>4</v>
       </c>
       <c r="G9" s="14">
-        <f t="shared" si="1"/>
-        <v>159.99999600000046</v>
+        <f>SUMPRODUCT(C9:E9,C$14:E$14)</f>
+        <v>160</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>38</v>
@@ -1868,7 +1938,7 @@
         <v>164000</v>
       </c>
       <c r="K9" s="14">
-        <v>163840.000004</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0.5</v>
@@ -1877,41 +1947,47 @@
         <f>L9/SUM((Penalty))</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="N9" s="22">
-        <v>0</v>
-      </c>
-      <c r="O9">
+      <c r="N9" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="14">
+        <v>163840.00000094326</v>
+      </c>
+      <c r="P9" s="14">
         <v>0.5</v>
       </c>
-      <c r="P9" s="14">
-        <f>O9/SUM(Penalty)</f>
+      <c r="Q9" s="14">
+        <f>P9/SUM(Penalty)</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22">
-        <f>G9+K9-N9</f>
-        <v>164000</v>
-      </c>
-      <c r="U9" s="30" t="s">
+      <c r="R9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="S9" s="32"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22">
+        <f t="shared" si="1"/>
+        <v>164000.00000094326</v>
+      </c>
+      <c r="W9" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="V9" s="22">
+      <c r="X9" s="22">
         <f t="shared" si="2"/>
         <v>164000</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
         <v>42</v>
       </c>
       <c r="L13" s="16">
-        <f>K5*M5+K6*M6+K7*M7+K8*M8+K9*M9+N9*P9+N5*P5+N6*P6+N7*P7+Goal1*P8</f>
-        <v>15035.294118235295</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+        <f>K5*M5+K6*M6+K7*M7+K8*M8+K9*M9+O9*Q9+O5*Q5+O6*Q6+O7*Q7+Goal1*Q8</f>
+        <v>9637.6470588790144</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -1922,12 +1998,12 @@
         <v>0</v>
       </c>
       <c r="E14" s="15">
-        <v>39.999999000000116</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="V2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
